--- a/draft/Regression_IY_15 WIN/下市櫃日期.xlsx
+++ b/draft/Regression_IY_15 WIN/下市櫃日期.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\PaperPilot\Brazel2008\HC0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\draft\Regression_IY_15 WIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9BDDCF-0BCD-4CAA-9D66-56BCB2567055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69084B25-A8C1-4265-AA44-626412680974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14974,7 +14974,7 @@
   <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
